--- a/forecast_summary_B0BSB6MB15.xlsx
+++ b/forecast_summary_B0BSB6MB15.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>370.1401958305855</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9537506479779</v>
+        <v>486.2048133693816</v>
       </c>
       <c r="E2" t="n">
         <v>168</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C3" t="n">
         <v>578.5372958140746</v>
       </c>
       <c r="D3" t="n">
-        <v>692.1693498159307</v>
+        <v>687.7186592514072</v>
       </c>
       <c r="E3" t="n">
         <v>137</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>670.3369608465623</v>
       </c>
       <c r="D4" t="n">
-        <v>787.0488403605202</v>
+        <v>790.7090018343279</v>
       </c>
       <c r="E4" t="n">
         <v>161</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>576.7365474785057</v>
       </c>
       <c r="D5" t="n">
-        <v>692.9114323867766</v>
+        <v>685.282730255396</v>
       </c>
       <c r="E5" t="n">
         <v>117</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>384.2962902314137</v>
       </c>
       <c r="D6" t="n">
-        <v>506.0540995262968</v>
+        <v>498.2337186706682</v>
       </c>
       <c r="E6" t="n">
         <v>109</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>252.4722073478636</v>
       </c>
       <c r="D7" t="n">
-        <v>364.4129656243299</v>
+        <v>369.9449028098426</v>
       </c>
       <c r="E7" t="n">
         <v>113</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>264.960497972038</v>
       </c>
       <c r="D8" t="n">
-        <v>387.2155920516287</v>
+        <v>381.4615504846822</v>
       </c>
       <c r="E8" t="n">
         <v>116</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" t="n">
         <v>371.2731278605259</v>
       </c>
       <c r="D9" t="n">
-        <v>491.2705447679271</v>
+        <v>497.5797420807681</v>
       </c>
       <c r="E9" t="n">
         <v>116</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C10" t="n">
         <v>463.3178603966021</v>
       </c>
       <c r="D10" t="n">
-        <v>583.8495492933323</v>
+        <v>567.7770877643683</v>
       </c>
       <c r="E10" t="n">
         <v>113</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C11" t="n">
         <v>485.8642719191729</v>
       </c>
       <c r="D11" t="n">
-        <v>602.4894840090243</v>
+        <v>599.6538652349534</v>
       </c>
       <c r="E11" t="n">
         <v>113</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C12" t="n">
         <v>465.4484785880628</v>
       </c>
       <c r="D12" t="n">
-        <v>582.1857254713818</v>
+        <v>572.9078136637283</v>
       </c>
       <c r="E12" t="n">
         <v>118</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>453.5620802748011</v>
       </c>
       <c r="D13" t="n">
-        <v>563.9592216271606</v>
+        <v>563.8435896729015</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>469.0457635364857</v>
       </c>
       <c r="D14" t="n">
-        <v>590.7275859912384</v>
+        <v>590.8195871572098</v>
       </c>
       <c r="E14" t="n">
         <v>115</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C15" t="n">
         <v>496.9043299302785</v>
       </c>
       <c r="D15" t="n">
-        <v>610.0259837131611</v>
+        <v>612.9548429487755</v>
       </c>
       <c r="E15" t="n">
         <v>115</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C16" t="n">
         <v>518.2766785939115</v>
       </c>
       <c r="D16" t="n">
-        <v>631.9620192870706</v>
+        <v>630.2799533753868</v>
       </c>
       <c r="E16" t="n">
         <v>115</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>522.8377307013609</v>
       </c>
       <c r="D17" t="n">
-        <v>638.2095878068139</v>
+        <v>630.6084674148076</v>
       </c>
       <c r="E17" t="n">
         <v>115</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>502.5148487929636</v>
       </c>
       <c r="D18" t="n">
-        <v>627.0536371038635</v>
+        <v>623.2842252523727</v>
       </c>
       <c r="E18" t="n">
         <v>112</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C19" t="n">
         <v>457.2234120151087</v>
       </c>
       <c r="D19" t="n">
-        <v>575.8599060902242</v>
+        <v>564.7065791618671</v>
       </c>
       <c r="E19" t="n">
         <v>111</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>411.2796304712699</v>
       </c>
       <c r="D20" t="n">
-        <v>531.9162721012792</v>
+        <v>527.255451684915</v>
       </c>
       <c r="E20" t="n">
         <v>118</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>402.785069880044</v>
       </c>
       <c r="D21" t="n">
-        <v>518.1655157263351</v>
+        <v>515.6607503376172</v>
       </c>
       <c r="E21" t="n">
         <v>112</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760M DS3H DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>7527</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2242</t>
+          <t>2241</t>
         </is>
       </c>
     </row>
